--- a/Data/LoadtoSQL/CountryFlags.xlsx
+++ b/Data/LoadtoSQL/CountryFlags.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\patan\Documents\GitHub\Capstone\Economic-Transformation-Project\Data\LoadtoSQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14970FE-1390-4C62-997C-0368950D9E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9BFDFA-5C51-4FCD-AB91-0643047FB7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43635" yWindow="135" windowWidth="25770" windowHeight="20685" xr2:uid="{708D18AF-F2D0-46E5-9D22-E4D3D501BB5F}"/>
+    <workbookView xWindow="28740" yWindow="45" windowWidth="15270" windowHeight="15540" xr2:uid="{708D18AF-F2D0-46E5-9D22-E4D3D501BB5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Region (2)" sheetId="2" r:id="rId1"/>
     <sheet name="Region" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Region (2)'!$A$1:$C$218</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="449">
   <si>
     <t>Country Code</t>
   </si>
@@ -1372,13 +1375,25 @@
   </si>
   <si>
     <t>Flag</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Flag found</t>
+  </si>
+  <si>
+    <t>Flag not found</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1386,16 +1401,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1403,12 +1437,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1723,2423 +1778,2443 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68758189-0B77-4E16-8458-CC7A90450EC9}">
-  <dimension ref="A1:D218"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14:B15"/>
+      <selection pane="bottomLeft" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.19921875" customWidth="1"/>
-    <col min="3" max="3" width="38.265625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" customWidth="1"/>
+    <col min="7" max="7" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" t="s">
+        <v>357</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B206" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C206" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>66</v>
-      </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A39" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A41" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A43" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>100</v>
-      </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A49" t="s">
-        <v>104</v>
-      </c>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A51" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>110</v>
-      </c>
-      <c r="B52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A53" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C216" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>116</v>
-      </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>118</v>
-      </c>
-      <c r="B56" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>120</v>
-      </c>
-      <c r="B57" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A61" t="s">
-        <v>128</v>
-      </c>
-      <c r="B61" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" t="s">
-        <v>135</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" t="s">
-        <v>137</v>
-      </c>
-      <c r="C65" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>138</v>
-      </c>
-      <c r="B66" t="s">
-        <v>139</v>
-      </c>
-      <c r="C66" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
-        <v>140</v>
-      </c>
-      <c r="B67" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>142</v>
-      </c>
-      <c r="B68" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A69" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A70" t="s">
-        <v>146</v>
-      </c>
-      <c r="B70" t="s">
-        <v>147</v>
-      </c>
-      <c r="C70" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>150</v>
-      </c>
-      <c r="B72" t="s">
-        <v>151</v>
-      </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>152</v>
-      </c>
-      <c r="B73" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>154</v>
-      </c>
-      <c r="B74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B75" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>158</v>
-      </c>
-      <c r="B76" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>162</v>
-      </c>
-      <c r="B78" t="s">
-        <v>163</v>
-      </c>
-      <c r="C78" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>164</v>
-      </c>
-      <c r="B79" t="s">
-        <v>165</v>
-      </c>
-      <c r="C79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>168</v>
-      </c>
-      <c r="B81" t="s">
-        <v>169</v>
-      </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>170</v>
-      </c>
-      <c r="B82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>172</v>
-      </c>
-      <c r="B83" t="s">
-        <v>173</v>
-      </c>
-      <c r="C83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
-        <v>174</v>
-      </c>
-      <c r="B84" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A85" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85" t="s">
-        <v>177</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
-        <v>178</v>
-      </c>
-      <c r="B86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C86" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
-        <v>180</v>
-      </c>
-      <c r="B87" t="s">
-        <v>181</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>182</v>
-      </c>
-      <c r="B88" t="s">
-        <v>183</v>
-      </c>
-      <c r="C88" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
-        <v>184</v>
-      </c>
-      <c r="B89" t="s">
-        <v>185</v>
-      </c>
-      <c r="C89" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A90" t="s">
-        <v>186</v>
-      </c>
-      <c r="B90" t="s">
-        <v>187</v>
-      </c>
-      <c r="C90" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A91" t="s">
-        <v>188</v>
-      </c>
-      <c r="B91" t="s">
-        <v>189</v>
-      </c>
-      <c r="C91" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A92" t="s">
-        <v>190</v>
-      </c>
-      <c r="B92" t="s">
-        <v>191</v>
-      </c>
-      <c r="C92" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A93" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" t="s">
-        <v>193</v>
-      </c>
-      <c r="C93" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A94" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" t="s">
-        <v>195</v>
-      </c>
-      <c r="C94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A95" t="s">
-        <v>196</v>
-      </c>
-      <c r="B95" t="s">
-        <v>197</v>
-      </c>
-      <c r="C95" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A96" t="s">
-        <v>198</v>
-      </c>
-      <c r="B96" t="s">
-        <v>199</v>
-      </c>
-      <c r="C96" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A97" t="s">
-        <v>200</v>
-      </c>
-      <c r="B97" t="s">
-        <v>201</v>
-      </c>
-      <c r="C97" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A98" t="s">
-        <v>202</v>
-      </c>
-      <c r="B98" t="s">
-        <v>203</v>
-      </c>
-      <c r="C98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A99" t="s">
-        <v>204</v>
-      </c>
-      <c r="B99" t="s">
-        <v>205</v>
-      </c>
-      <c r="C99" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A100" t="s">
-        <v>206</v>
-      </c>
-      <c r="B100" t="s">
-        <v>207</v>
-      </c>
-      <c r="C100" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A101" t="s">
-        <v>208</v>
-      </c>
-      <c r="B101" t="s">
-        <v>209</v>
-      </c>
-      <c r="C101" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A102" t="s">
-        <v>210</v>
-      </c>
-      <c r="B102" t="s">
-        <v>211</v>
-      </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A103" t="s">
-        <v>212</v>
-      </c>
-      <c r="B103" t="s">
-        <v>213</v>
-      </c>
-      <c r="C103" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A104" t="s">
-        <v>214</v>
-      </c>
-      <c r="B104" t="s">
-        <v>215</v>
-      </c>
-      <c r="C104" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A105" t="s">
-        <v>216</v>
-      </c>
-      <c r="B105" t="s">
-        <v>217</v>
-      </c>
-      <c r="C105" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A106" t="s">
-        <v>218</v>
-      </c>
-      <c r="B106" t="s">
-        <v>219</v>
-      </c>
-      <c r="C106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A107" t="s">
-        <v>220</v>
-      </c>
-      <c r="B107" t="s">
-        <v>221</v>
-      </c>
-      <c r="C107" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A108" t="s">
-        <v>222</v>
-      </c>
-      <c r="B108" t="s">
-        <v>223</v>
-      </c>
-      <c r="C108" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A109" t="s">
-        <v>224</v>
-      </c>
-      <c r="B109" t="s">
-        <v>225</v>
-      </c>
-      <c r="C109" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A110" t="s">
-        <v>226</v>
-      </c>
-      <c r="B110" t="s">
-        <v>227</v>
-      </c>
-      <c r="C110" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A111" t="s">
-        <v>228</v>
-      </c>
-      <c r="B111" t="s">
-        <v>229</v>
-      </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A112" t="s">
-        <v>230</v>
-      </c>
-      <c r="B112" t="s">
-        <v>231</v>
-      </c>
-      <c r="C112" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A113" t="s">
-        <v>232</v>
-      </c>
-      <c r="B113" t="s">
-        <v>233</v>
-      </c>
-      <c r="C113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A114" t="s">
-        <v>234</v>
-      </c>
-      <c r="B114" t="s">
-        <v>235</v>
-      </c>
-      <c r="C114" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A115" t="s">
-        <v>236</v>
-      </c>
-      <c r="B115" t="s">
-        <v>237</v>
-      </c>
-      <c r="C115" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A116" t="s">
-        <v>238</v>
-      </c>
-      <c r="B116" t="s">
-        <v>239</v>
-      </c>
-      <c r="C116" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A117" t="s">
-        <v>240</v>
-      </c>
-      <c r="B117" t="s">
-        <v>241</v>
-      </c>
-      <c r="C117" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A118" t="s">
-        <v>242</v>
-      </c>
-      <c r="B118" t="s">
-        <v>243</v>
-      </c>
-      <c r="C118" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A119" t="s">
-        <v>244</v>
-      </c>
-      <c r="B119" t="s">
-        <v>245</v>
-      </c>
-      <c r="C119" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A120" t="s">
-        <v>246</v>
-      </c>
-      <c r="B120" t="s">
-        <v>247</v>
-      </c>
-      <c r="C120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A121" t="s">
-        <v>248</v>
-      </c>
-      <c r="B121" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
         <v>249</v>
       </c>
-      <c r="C121" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A122" t="s">
-        <v>250</v>
-      </c>
-      <c r="B122" t="s">
-        <v>251</v>
-      </c>
-      <c r="C122" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A123" t="s">
-        <v>252</v>
-      </c>
-      <c r="B123" t="s">
-        <v>253</v>
-      </c>
-      <c r="C123" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A124" t="s">
-        <v>254</v>
-      </c>
-      <c r="B124" t="s">
-        <v>255</v>
-      </c>
-      <c r="C124" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A125" t="s">
-        <v>256</v>
-      </c>
-      <c r="B125" t="s">
-        <v>257</v>
-      </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A126" t="s">
-        <v>258</v>
-      </c>
-      <c r="B126" t="s">
-        <v>259</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A127" t="s">
-        <v>260</v>
-      </c>
-      <c r="B127" t="s">
-        <v>261</v>
-      </c>
-      <c r="C127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A128" t="s">
-        <v>262</v>
-      </c>
-      <c r="B128" t="s">
-        <v>263</v>
-      </c>
-      <c r="C128" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A129" t="s">
-        <v>264</v>
-      </c>
-      <c r="B129" t="s">
-        <v>265</v>
-      </c>
-      <c r="C129" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A130" t="s">
-        <v>266</v>
-      </c>
-      <c r="B130" t="s">
-        <v>267</v>
-      </c>
-      <c r="C130" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A131" t="s">
-        <v>268</v>
-      </c>
-      <c r="B131" t="s">
-        <v>269</v>
-      </c>
-      <c r="C131" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A132" t="s">
-        <v>270</v>
-      </c>
-      <c r="B132" t="s">
-        <v>271</v>
-      </c>
-      <c r="C132" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A133" t="s">
-        <v>272</v>
-      </c>
-      <c r="B133" t="s">
-        <v>273</v>
-      </c>
-      <c r="C133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A134" t="s">
-        <v>274</v>
-      </c>
-      <c r="B134" t="s">
-        <v>275</v>
-      </c>
-      <c r="C134" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A135" t="s">
-        <v>276</v>
-      </c>
-      <c r="B135" t="s">
-        <v>277</v>
-      </c>
-      <c r="C135" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A136" t="s">
-        <v>278</v>
-      </c>
-      <c r="B136" t="s">
-        <v>279</v>
-      </c>
-      <c r="C136" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A137" t="s">
-        <v>280</v>
-      </c>
-      <c r="B137" t="s">
-        <v>281</v>
-      </c>
-      <c r="C137" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A138" t="s">
-        <v>282</v>
-      </c>
-      <c r="B138" t="s">
-        <v>283</v>
-      </c>
-      <c r="C138" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A139" t="s">
-        <v>284</v>
-      </c>
-      <c r="B139" t="s">
-        <v>285</v>
-      </c>
-      <c r="C139" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A140" t="s">
-        <v>286</v>
-      </c>
-      <c r="B140" t="s">
-        <v>287</v>
-      </c>
-      <c r="C140" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A141" t="s">
-        <v>288</v>
-      </c>
-      <c r="B141" t="s">
-        <v>289</v>
-      </c>
-      <c r="C141" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A142" t="s">
-        <v>290</v>
-      </c>
-      <c r="B142" t="s">
-        <v>291</v>
-      </c>
-      <c r="C142" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A143" t="s">
-        <v>292</v>
-      </c>
-      <c r="B143" t="s">
-        <v>293</v>
-      </c>
-      <c r="C143" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A144" t="s">
-        <v>294</v>
-      </c>
-      <c r="B144" t="s">
-        <v>295</v>
-      </c>
-      <c r="C144" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A145" t="s">
-        <v>296</v>
-      </c>
-      <c r="B145" t="s">
-        <v>297</v>
-      </c>
-      <c r="C145" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A146" t="s">
-        <v>298</v>
-      </c>
-      <c r="B146" t="s">
-        <v>299</v>
-      </c>
-      <c r="C146" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A147" t="s">
-        <v>300</v>
-      </c>
-      <c r="B147" t="s">
-        <v>301</v>
-      </c>
-      <c r="C147" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A148" t="s">
-        <v>302</v>
-      </c>
-      <c r="B148" t="s">
-        <v>303</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A149" t="s">
-        <v>304</v>
-      </c>
-      <c r="B149" t="s">
-        <v>305</v>
-      </c>
-      <c r="C149" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A150" t="s">
-        <v>306</v>
-      </c>
-      <c r="B150" t="s">
-        <v>307</v>
-      </c>
-      <c r="C150" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A151" t="s">
-        <v>308</v>
-      </c>
-      <c r="B151" t="s">
-        <v>309</v>
-      </c>
-      <c r="C151" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A152" t="s">
-        <v>310</v>
-      </c>
-      <c r="B152" t="s">
-        <v>311</v>
-      </c>
-      <c r="C152" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A153" t="s">
-        <v>312</v>
-      </c>
-      <c r="B153" t="s">
-        <v>313</v>
-      </c>
-      <c r="C153" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A154" t="s">
-        <v>314</v>
-      </c>
-      <c r="B154" t="s">
-        <v>315</v>
-      </c>
-      <c r="C154" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A155" t="s">
-        <v>316</v>
-      </c>
-      <c r="B155" t="s">
-        <v>317</v>
-      </c>
-      <c r="C155" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A156" t="s">
-        <v>318</v>
-      </c>
-      <c r="B156" t="s">
-        <v>319</v>
-      </c>
-      <c r="C156" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A157" t="s">
-        <v>320</v>
-      </c>
-      <c r="B157" t="s">
-        <v>321</v>
-      </c>
-      <c r="C157" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A158" t="s">
-        <v>322</v>
-      </c>
-      <c r="B158" t="s">
-        <v>323</v>
-      </c>
-      <c r="C158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A159" t="s">
-        <v>324</v>
-      </c>
-      <c r="B159" t="s">
-        <v>325</v>
-      </c>
-      <c r="C159" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A160" t="s">
-        <v>326</v>
-      </c>
-      <c r="B160" t="s">
-        <v>327</v>
-      </c>
-      <c r="C160" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A161" t="s">
-        <v>328</v>
-      </c>
-      <c r="B161" t="s">
-        <v>329</v>
-      </c>
-      <c r="C161" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A162" t="s">
-        <v>330</v>
-      </c>
-      <c r="B162" t="s">
-        <v>331</v>
-      </c>
-      <c r="C162" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A163" t="s">
-        <v>332</v>
-      </c>
-      <c r="B163" t="s">
-        <v>333</v>
-      </c>
-      <c r="C163" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A164" t="s">
-        <v>334</v>
-      </c>
-      <c r="B164" t="s">
-        <v>335</v>
-      </c>
-      <c r="C164" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A165" t="s">
-        <v>336</v>
-      </c>
-      <c r="B165" t="s">
-        <v>337</v>
-      </c>
-      <c r="C165" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A166" t="s">
-        <v>338</v>
-      </c>
-      <c r="B166" t="s">
-        <v>339</v>
-      </c>
-      <c r="C166" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A167" t="s">
-        <v>340</v>
-      </c>
-      <c r="B167" t="s">
-        <v>341</v>
-      </c>
-      <c r="C167" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A168" t="s">
-        <v>342</v>
-      </c>
-      <c r="B168" t="s">
-        <v>343</v>
-      </c>
-      <c r="C168" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A169" t="s">
-        <v>344</v>
-      </c>
-      <c r="B169" t="s">
-        <v>345</v>
-      </c>
-      <c r="C169" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A170" t="s">
-        <v>346</v>
-      </c>
-      <c r="B170" t="s">
-        <v>347</v>
-      </c>
-      <c r="C170" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A171" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171" t="s">
-        <v>349</v>
-      </c>
-      <c r="C171" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A172" t="s">
-        <v>350</v>
-      </c>
-      <c r="B172" t="s">
-        <v>351</v>
-      </c>
-      <c r="C172" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A173" t="s">
-        <v>352</v>
-      </c>
-      <c r="B173" t="s">
-        <v>353</v>
-      </c>
-      <c r="C173" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A174" t="s">
-        <v>354</v>
-      </c>
-      <c r="B174" t="s">
-        <v>355</v>
-      </c>
-      <c r="C174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A175" t="s">
-        <v>356</v>
-      </c>
-      <c r="B175" t="s">
-        <v>357</v>
-      </c>
-      <c r="C175" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A176" t="s">
-        <v>358</v>
-      </c>
-      <c r="B176" t="s">
-        <v>359</v>
-      </c>
-      <c r="C176" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A177" t="s">
-        <v>360</v>
-      </c>
-      <c r="B177" t="s">
-        <v>361</v>
-      </c>
-      <c r="C177" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A178" t="s">
-        <v>362</v>
-      </c>
-      <c r="B178" t="s">
-        <v>363</v>
-      </c>
-      <c r="C178" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A179" t="s">
-        <v>364</v>
-      </c>
-      <c r="B179" t="s">
-        <v>365</v>
-      </c>
-      <c r="C179" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A180" t="s">
-        <v>366</v>
-      </c>
-      <c r="B180" t="s">
-        <v>367</v>
-      </c>
-      <c r="C180" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A181" t="s">
-        <v>368</v>
-      </c>
-      <c r="B181" t="s">
-        <v>369</v>
-      </c>
-      <c r="C181" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A182" t="s">
-        <v>370</v>
-      </c>
-      <c r="B182" t="s">
-        <v>371</v>
-      </c>
-      <c r="C182" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A183" t="s">
-        <v>372</v>
-      </c>
-      <c r="B183" t="s">
-        <v>373</v>
-      </c>
-      <c r="C183" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A184" t="s">
-        <v>374</v>
-      </c>
-      <c r="B184" t="s">
-        <v>375</v>
-      </c>
-      <c r="C184" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A185" t="s">
-        <v>376</v>
-      </c>
-      <c r="B185" t="s">
-        <v>377</v>
-      </c>
-      <c r="C185" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A186" t="s">
-        <v>378</v>
-      </c>
-      <c r="B186" t="s">
-        <v>379</v>
-      </c>
-      <c r="C186" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A187" t="s">
-        <v>380</v>
-      </c>
-      <c r="B187" t="s">
-        <v>381</v>
-      </c>
-      <c r="C187" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A188" t="s">
-        <v>382</v>
-      </c>
-      <c r="B188" t="s">
-        <v>383</v>
-      </c>
-      <c r="C188" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A189" t="s">
-        <v>384</v>
-      </c>
-      <c r="B189" t="s">
-        <v>385</v>
-      </c>
-      <c r="C189" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A190" t="s">
-        <v>386</v>
-      </c>
-      <c r="B190" t="s">
-        <v>387</v>
-      </c>
-      <c r="C190" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A191" t="s">
-        <v>388</v>
-      </c>
-      <c r="B191" t="s">
-        <v>389</v>
-      </c>
-      <c r="C191" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A192" t="s">
-        <v>390</v>
-      </c>
-      <c r="B192" t="s">
-        <v>391</v>
-      </c>
-      <c r="C192" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A193" t="s">
-        <v>392</v>
-      </c>
-      <c r="B193" t="s">
-        <v>393</v>
-      </c>
-      <c r="C193" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A194" t="s">
-        <v>394</v>
-      </c>
-      <c r="B194" t="s">
-        <v>395</v>
-      </c>
-      <c r="C194" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A195" t="s">
-        <v>396</v>
-      </c>
-      <c r="B195" t="s">
-        <v>397</v>
-      </c>
-      <c r="C195" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A196" t="s">
-        <v>398</v>
-      </c>
-      <c r="B196" t="s">
-        <v>399</v>
-      </c>
-      <c r="C196" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A197" t="s">
-        <v>400</v>
-      </c>
-      <c r="B197" t="s">
-        <v>401</v>
-      </c>
-      <c r="C197" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A198" t="s">
-        <v>402</v>
-      </c>
-      <c r="B198" t="s">
-        <v>403</v>
-      </c>
-      <c r="C198" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A199" t="s">
-        <v>404</v>
-      </c>
-      <c r="B199" t="s">
-        <v>405</v>
-      </c>
-      <c r="C199" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A200" t="s">
-        <v>406</v>
-      </c>
-      <c r="B200" t="s">
-        <v>407</v>
-      </c>
-      <c r="C200" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A201" t="s">
-        <v>408</v>
-      </c>
-      <c r="B201" t="s">
-        <v>409</v>
-      </c>
-      <c r="C201" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A202" t="s">
-        <v>410</v>
-      </c>
-      <c r="B202" t="s">
-        <v>411</v>
-      </c>
-      <c r="C202" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A203" t="s">
-        <v>412</v>
-      </c>
-      <c r="B203" t="s">
-        <v>413</v>
-      </c>
-      <c r="C203" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A204" t="s">
-        <v>414</v>
-      </c>
-      <c r="B204" t="s">
-        <v>415</v>
-      </c>
-      <c r="C204" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A205" t="s">
-        <v>416</v>
-      </c>
-      <c r="B205" t="s">
-        <v>417</v>
-      </c>
-      <c r="C205" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A206" t="s">
-        <v>418</v>
-      </c>
-      <c r="B206" t="s">
-        <v>419</v>
-      </c>
-      <c r="C206" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A207" t="s">
-        <v>420</v>
-      </c>
-      <c r="B207" t="s">
-        <v>421</v>
-      </c>
-      <c r="C207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A208" t="s">
-        <v>422</v>
-      </c>
-      <c r="B208" t="s">
-        <v>423</v>
-      </c>
-      <c r="C208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A209" t="s">
-        <v>424</v>
-      </c>
-      <c r="B209" t="s">
-        <v>425</v>
-      </c>
-      <c r="C209" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A210" t="s">
-        <v>426</v>
-      </c>
-      <c r="B210" t="s">
-        <v>427</v>
-      </c>
-      <c r="C210" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A211" t="s">
-        <v>428</v>
-      </c>
-      <c r="B211" t="s">
-        <v>429</v>
-      </c>
-      <c r="C211" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A212" t="s">
-        <v>430</v>
-      </c>
-      <c r="B212" t="s">
-        <v>431</v>
-      </c>
-      <c r="C212" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A213" t="s">
-        <v>432</v>
-      </c>
-      <c r="B213" t="s">
-        <v>433</v>
-      </c>
-      <c r="C213" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A214" t="s">
-        <v>434</v>
-      </c>
-      <c r="B214" t="s">
-        <v>435</v>
-      </c>
-      <c r="C214" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A215" t="s">
-        <v>436</v>
-      </c>
-      <c r="B215" t="s">
-        <v>437</v>
-      </c>
-      <c r="C215" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A216" t="s">
-        <v>438</v>
-      </c>
-      <c r="B216" t="s">
-        <v>439</v>
-      </c>
-      <c r="C216" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A217" t="s">
-        <v>440</v>
-      </c>
-      <c r="B217" t="s">
-        <v>441</v>
-      </c>
-      <c r="C217" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A218" t="s">
-        <v>442</v>
-      </c>
-      <c r="B218" t="s">
-        <v>443</v>
-      </c>
-      <c r="C218" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C218" xr:uid="{68758189-0B77-4E16-8458-CC7A90450EC9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C218">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4151,13 +4226,13 @@
       <selection activeCell="H24" sqref="H24:H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.19921875" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4168,7 +4243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4179,7 +4254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4201,7 +4276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -4212,7 +4287,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4223,7 +4298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -4234,7 +4309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -4245,7 +4320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4256,7 +4331,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -4267,7 +4342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -4278,7 +4353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -4289,7 +4364,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -4300,7 +4375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4311,7 +4386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -4322,7 +4397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -4333,7 +4408,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4344,7 +4419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -4355,7 +4430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -4366,7 +4441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -4377,7 +4452,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -4388,7 +4463,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -4399,7 +4474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -4410,7 +4485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -4421,7 +4496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -4432,7 +4507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -4443,7 +4518,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -4454,7 +4529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -4465,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -4476,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -4487,7 +4562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -4498,7 +4573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -4509,7 +4584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -4520,7 +4595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -4531,7 +4606,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -4542,7 +4617,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -4553,7 +4628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -4564,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -4575,7 +4650,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -4586,7 +4661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -4597,7 +4672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -4608,7 +4683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -4619,7 +4694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -4630,7 +4705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -4641,7 +4716,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -4652,7 +4727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -4663,7 +4738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
@@ -4674,7 +4749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
@@ -4685,7 +4760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -4696,7 +4771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
@@ -4707,7 +4782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
@@ -4718,7 +4793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -4729,7 +4804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -4740,7 +4815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -4751,7 +4826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -4762,7 +4837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -4773,7 +4848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -4784,7 +4859,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -4795,7 +4870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -4806,7 +4881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -4817,7 +4892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -4828,7 +4903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -4839,7 +4914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -4850,7 +4925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -4861,7 +4936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -4872,7 +4947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -4883,7 +4958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -4894,7 +4969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -4905,7 +4980,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -4916,7 +4991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -4927,7 +5002,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -4938,7 +5013,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -4949,7 +5024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -4960,7 +5035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -4971,7 +5046,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -4982,7 +5057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -4993,7 +5068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -5004,7 +5079,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>162</v>
       </c>
@@ -5015,7 +5090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -5026,7 +5101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -5037,7 +5112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -5048,7 +5123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -5059,7 +5134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -5070,7 +5145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>174</v>
       </c>
@@ -5081,7 +5156,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>176</v>
       </c>
@@ -5092,7 +5167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>178</v>
       </c>
@@ -5103,7 +5178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>180</v>
       </c>
@@ -5114,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -5125,7 +5200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -5136,7 +5211,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -5147,7 +5222,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -5158,7 +5233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -5169,7 +5244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -5180,7 +5255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -5191,7 +5266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>196</v>
       </c>
@@ -5202,7 +5277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>198</v>
       </c>
@@ -5213,7 +5288,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -5224,7 +5299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -5235,7 +5310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -5246,7 +5321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -5257,7 +5332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -5268,7 +5343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>210</v>
       </c>
@@ -5279,7 +5354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>212</v>
       </c>
@@ -5290,7 +5365,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>214</v>
       </c>
@@ -5301,7 +5376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>216</v>
       </c>
@@ -5312,7 +5387,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>218</v>
       </c>
@@ -5323,7 +5398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>220</v>
       </c>
@@ -5334,7 +5409,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>222</v>
       </c>
@@ -5345,7 +5420,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -5356,7 +5431,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>226</v>
       </c>
@@ -5367,7 +5442,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>228</v>
       </c>
@@ -5378,7 +5453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>230</v>
       </c>
@@ -5389,7 +5464,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -5400,7 +5475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>234</v>
       </c>
@@ -5411,7 +5486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>236</v>
       </c>
@@ -5422,7 +5497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -5433,7 +5508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -5444,7 +5519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -5455,7 +5530,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -5466,7 +5541,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -5477,7 +5552,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>248</v>
       </c>
@@ -5488,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -5499,7 +5574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -5510,7 +5585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -5521,7 +5596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>256</v>
       </c>
@@ -5532,7 +5607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -5543,7 +5618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -5554,7 +5629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -5565,7 +5640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>264</v>
       </c>
@@ -5576,7 +5651,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>266</v>
       </c>
@@ -5587,7 +5662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>268</v>
       </c>
@@ -5598,7 +5673,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -5609,7 +5684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -5620,7 +5695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>274</v>
       </c>
@@ -5631,7 +5706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -5642,7 +5717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>278</v>
       </c>
@@ -5653,7 +5728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -5664,7 +5739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -5675,7 +5750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -5686,7 +5761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>286</v>
       </c>
@@ -5697,7 +5772,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>288</v>
       </c>
@@ -5708,7 +5783,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -5719,7 +5794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>292</v>
       </c>
@@ -5730,7 +5805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>294</v>
       </c>
@@ -5741,7 +5816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>296</v>
       </c>
@@ -5752,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>298</v>
       </c>
@@ -5763,7 +5838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -5774,7 +5849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>302</v>
       </c>
@@ -5785,7 +5860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>304</v>
       </c>
@@ -5796,7 +5871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -5807,7 +5882,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -5818,7 +5893,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -5829,7 +5904,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>312</v>
       </c>
@@ -5840,7 +5915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>314</v>
       </c>
@@ -5851,7 +5926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>316</v>
       </c>
@@ -5862,7 +5937,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>318</v>
       </c>
@@ -5873,7 +5948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>320</v>
       </c>
@@ -5884,7 +5959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>322</v>
       </c>
@@ -5895,7 +5970,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>324</v>
       </c>
@@ -5906,7 +5981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>326</v>
       </c>
@@ -5917,7 +5992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>328</v>
       </c>
@@ -5928,7 +6003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>330</v>
       </c>
@@ -5939,7 +6014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -5950,7 +6025,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>334</v>
       </c>
@@ -5961,7 +6036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -5972,7 +6047,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>338</v>
       </c>
@@ -5983,7 +6058,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>340</v>
       </c>
@@ -5994,7 +6069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>342</v>
       </c>
@@ -6005,7 +6080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -6016,7 +6091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>346</v>
       </c>
@@ -6027,7 +6102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>348</v>
       </c>
@@ -6038,7 +6113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>350</v>
       </c>
@@ -6049,7 +6124,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>352</v>
       </c>
@@ -6060,7 +6135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>354</v>
       </c>
@@ -6071,7 +6146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -6082,7 +6157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>358</v>
       </c>
@@ -6093,7 +6168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -6104,7 +6179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>362</v>
       </c>
@@ -6115,7 +6190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>364</v>
       </c>
@@ -6126,7 +6201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>366</v>
       </c>
@@ -6137,7 +6212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -6148,7 +6223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -6159,7 +6234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -6170,7 +6245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>374</v>
       </c>
@@ -6181,7 +6256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -6192,7 +6267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>378</v>
       </c>
@@ -6203,7 +6278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>380</v>
       </c>
@@ -6214,7 +6289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>382</v>
       </c>
@@ -6225,7 +6300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>384</v>
       </c>
@@ -6236,7 +6311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -6247,7 +6322,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -6258,7 +6333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>390</v>
       </c>
@@ -6269,7 +6344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>392</v>
       </c>
@@ -6280,7 +6355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>394</v>
       </c>
@@ -6291,7 +6366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>396</v>
       </c>
@@ -6302,7 +6377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>398</v>
       </c>
@@ -6313,7 +6388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>400</v>
       </c>
@@ -6324,7 +6399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>402</v>
       </c>
@@ -6335,7 +6410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>404</v>
       </c>
@@ -6346,7 +6421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>406</v>
       </c>
@@ -6357,7 +6432,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>408</v>
       </c>
@@ -6368,7 +6443,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>410</v>
       </c>
@@ -6379,7 +6454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>412</v>
       </c>
@@ -6390,7 +6465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>414</v>
       </c>
@@ -6401,7 +6476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>416</v>
       </c>
@@ -6412,7 +6487,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>418</v>
       </c>
@@ -6423,7 +6498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>420</v>
       </c>
@@ -6434,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>422</v>
       </c>
@@ -6445,7 +6520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>424</v>
       </c>
@@ -6456,7 +6531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>426</v>
       </c>
@@ -6467,7 +6542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>428</v>
       </c>
@@ -6478,7 +6553,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>430</v>
       </c>
@@ -6489,7 +6564,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>432</v>
       </c>
@@ -6500,7 +6575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>434</v>
       </c>
@@ -6511,7 +6586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>436</v>
       </c>
@@ -6522,7 +6597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>438</v>
       </c>
@@ -6533,7 +6608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>440</v>
       </c>
@@ -6544,7 +6619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>442</v>
       </c>
